--- a/medicine/Enfance/Renaud_Dillies/Renaud_Dillies.xlsx
+++ b/medicine/Enfance/Renaud_Dillies/Renaud_Dillies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Renaud Dillies est un auteur français de bandes dessinées né le 13 octobre 1972[1] à Lille[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renaud Dillies est un auteur français de bandes dessinées né le 13 octobre 1972 à Lille.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il suit des études en humanités, en graphisme et arts décoratifs à Saint-Luc, à Tournai. Ensuite, il étudie l’illustration à l’Académie des Beaux-Arts de Tournai[3].
-En 2004, il est lauréat du Prix du Meilleur Premier Album au Festival d'Angoulême[4] pour Betty Blues.
-Avec Régis Hautière au scénario, il dessine la BD Mister Plumb, et les séries Abélard et Alvin. En 2021, ils entament une nouvelle série  Le clan de la rivière sauvage, au premier opus L’œil du serpent. Pour la revue Télérama, « D’une ligne délicieusement grattée – sublimée par les lumineuses couleurs de Christophe Bouchard –, Renaud Dillies donne vie au monde drôle, tendre et palpitant imaginé par Régis Hautière, et il suffit de quelques pages pour se laisser envoûter par l’intrigue et l’ambiance de cette fausse histoire de pirates, mais véritable hommage à la puissance des bonnes histoires[5] ». Selon La Revue des livres pour enfants, du Centre National de Littérature pour la Jeunesse (CNLJ) « le duo Hautière - Dillies nous offre une nouvelle série où l'on retrouve toute la délicatesse et les petits héros animaliers dont ils ont le secret[6]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il suit des études en humanités, en graphisme et arts décoratifs à Saint-Luc, à Tournai. Ensuite, il étudie l’illustration à l’Académie des Beaux-Arts de Tournai.
+En 2004, il est lauréat du Prix du Meilleur Premier Album au Festival d'Angoulême pour Betty Blues.
+Avec Régis Hautière au scénario, il dessine la BD Mister Plumb, et les séries Abélard et Alvin. En 2021, ils entament une nouvelle série  Le clan de la rivière sauvage, au premier opus L’œil du serpent. Pour la revue Télérama, « D’une ligne délicieusement grattée – sublimée par les lumineuses couleurs de Christophe Bouchard –, Renaud Dillies donne vie au monde drôle, tendre et palpitant imaginé par Régis Hautière, et il suffit de quelques pages pour se laisser envoûter par l’intrigue et l’ambiance de cette fausse histoire de pirates, mais véritable hommage à la puissance des bonnes histoires ». Selon La Revue des livres pour enfants, du Centre National de Littérature pour la Jeunesse (CNLJ) « le duo Hautière - Dillies nous offre une nouvelle série où l'on retrouve toute la délicatesse et les petits héros animaliers dont ils ont le secret. »
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-Betty blues, Éditions Paquet coll. « Blandice » (2003)
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Betty blues, Éditions Paquet coll. « Blandice » (2003)
 Sumato , Éditions Paquet coll. « Blandice » (2004)
 Mélodie au crépuscule , Éditions Paquet coll. « Blandice » (2006)
 Mister Plumb, scénario de Régis Hautière, Éditions Paquet (2006)
@@ -563,8 +582,8 @@
 série Alvin, scénario de Régis Hautière, Dargaud
 L'héritage d'Abélard (2015)
 Le bal des monstres (2016)
-Saveur Coco[7], Dargaud (2013)
-Loup[8], Dargaud Bénélux, 2017
+Saveur Coco, Dargaud (2013)
+Loup, Dargaud Bénélux, 2017
 Série L'émouvantail, Éditions de la Gouttière
 tome 1, 2019
 Cache-cache, 2019
@@ -573,7 +592,7 @@
  L'étang du rêve , 2022
 Abélard, les errances de trois voyageurs solitaires, scénario Régis Hautière, dessin de Renaud Dillies, Dargaud, (2021)  (ISBN 2-505-11160-X)
 série  Le clan de la rivière sauvage, Régis Hautière (scénario), Renaud Dillies (dessin), Christophe Bouchard (couleurs), éditions de la Gouttière
-L’œil du serpent[6], 2021  (ISBN 9782357960367)</t>
+L’œil du serpent, 2021  (ISBN 9782357960367)</t>
         </is>
       </c>
     </row>
@@ -601,10 +620,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2004 : Prix du Meilleur Premier Album[4] au Festival d'Angoulême pour Betty Blues
-2022 :  Finaliste Prix des libraires du Québec catégorie Hors Québec - BD Jeunesse[9] pour Le Clan de la rivière sauvage, tome 1 : L’œil du serpent, avec Régis Hautière au scénario.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2004 : Prix du Meilleur Premier Album au Festival d'Angoulême pour Betty Blues
+2022 :  Finaliste Prix des libraires du Québec catégorie Hors Québec - BD Jeunesse pour Le Clan de la rivière sauvage, tome 1 : L’œil du serpent, avec Régis Hautière au scénario.</t>
         </is>
       </c>
     </row>
